--- a/biology/Zoologie/Barypeithes/Barypeithes.xlsx
+++ b/biology/Zoologie/Barypeithes/Barypeithes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Barypeithes est un genre de coléoptères appartenant à la sous-famille des Entiminae qui dépend de la famille des Curculionidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre de charançons, qui vivent dans les litières forestières européennes, sont de petites dimensions, entre 2,5 mm et 4,5 mm de longueur. Leur corps sans écaille a la particularité d'être recouvert de poils sensoriels bien visibles, plus ou moins longs. Ces espèces sont de couleur sombre, de brun à noirâtre. Les antennes sont coudées et sont situées devant les yeux, petits et composés, de chaque côté de la tête.
 </t>
@@ -542,7 +556,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Barypithes auct.
 Exomias Bedel, 1883</t>
@@ -573,9 +589,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (30 août 2014)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (30 août 2014) :
 Barypeithes bosnicus
 Barypeithes brunnipes
 Barypeithes chevrolati
@@ -596,9 +614,9 @@
 Barypeithes styriacus
 Barypeithes tenex
 Barypeithes virguncula
-Selon ITIS      (30 août 2014)[3] :
+Selon ITIS      (30 août 2014) :
 Barypeithes pellucidus (Boheman, 1834)
-Selon NCBI  (30 août 2014)[4] :
+Selon NCBI  (30 août 2014) :
 Barypeithes albinae
 Barypeithes araneiformis
 Barypeithes chevrolati
